--- a/untranslated/downloads/data-excel/3.4.1.xlsx
+++ b/untranslated/downloads/data-excel/3.4.1.xlsx
@@ -815,21 +815,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q127"/>
+  <dimension ref="A1:R127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="2" width="39.7109375" customWidth="1"/>
     <col min="3" max="3" width="39.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="4" max="5" width="9.85546875" customWidth="1"/>
     <col min="16" max="16" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="48">
+    <row r="1" spans="1:18" ht="48">
       <c r="A1" s="31" t="s">
         <v>34</v>
       </c>
@@ -853,7 +854,7 @@
       <c r="O1" s="33"/>
       <c r="P1" s="33"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" thickBot="1">
+    <row r="2" spans="1:18" ht="15" customHeight="1" thickBot="1">
       <c r="A2" s="33"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -871,7 +872,7 @@
       <c r="O2" s="33"/>
       <c r="P2" s="33"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -923,8 +924,11 @@
       <c r="Q3" s="14">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3" s="14">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="21" t="s">
         <v>47</v>
       </c>
@@ -948,8 +952,9 @@
       <c r="O4" s="20"/>
       <c r="P4" s="20"/>
       <c r="Q4" s="20"/>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4" s="20"/>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1001,8 +1006,11 @@
       <c r="Q5" s="16">
         <v>317.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5" s="16">
+        <v>297.10000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="3" t="s">
         <v>48</v>
       </c>
@@ -1054,8 +1062,11 @@
       <c r="Q6" s="16">
         <v>336.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6" s="16">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="3" t="s">
         <v>51</v>
       </c>
@@ -1107,8 +1118,11 @@
       <c r="Q7" s="16">
         <v>299.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7" s="16">
+        <v>283.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -1160,8 +1174,11 @@
       <c r="Q8" s="27">
         <v>318</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8" s="27">
+        <v>281.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="5" t="s">
         <v>48</v>
       </c>
@@ -1213,8 +1230,11 @@
       <c r="Q9" s="27">
         <v>351.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9" s="27">
+        <v>299.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
@@ -1266,8 +1286,11 @@
       <c r="Q10" s="27">
         <v>282.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10" s="27">
+        <v>263.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -1319,8 +1342,11 @@
       <c r="Q11" s="27">
         <v>292.39999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11" s="27">
+        <v>287.10000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="5" t="s">
         <v>48</v>
       </c>
@@ -1372,8 +1398,11 @@
       <c r="Q12" s="27">
         <v>311.39999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12" s="27">
+        <v>313.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="5" t="s">
         <v>51</v>
       </c>
@@ -1425,8 +1454,11 @@
       <c r="Q13" s="27">
         <v>273.10000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" s="1" customFormat="1">
+      <c r="R13" s="27">
+        <v>260.10000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -1478,8 +1510,11 @@
       <c r="Q14" s="27">
         <v>377</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" s="1" customFormat="1">
+      <c r="R14" s="27">
+        <v>358.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
         <v>48</v>
       </c>
@@ -1531,8 +1566,11 @@
       <c r="Q15" s="27">
         <v>400</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" s="1" customFormat="1">
+      <c r="R15" s="27">
+        <v>360.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
         <v>51</v>
       </c>
@@ -1584,8 +1622,11 @@
       <c r="Q16" s="27">
         <v>354.1</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" s="1" customFormat="1">
+      <c r="R16" s="27">
+        <v>355.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
@@ -1637,8 +1678,11 @@
       <c r="Q17" s="27">
         <v>340.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" s="1" customFormat="1">
+      <c r="R17" s="27">
+        <v>332.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
         <v>48</v>
       </c>
@@ -1690,8 +1734,11 @@
       <c r="Q18" s="27">
         <v>388.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" s="1" customFormat="1">
+      <c r="R18" s="27">
+        <v>377.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
         <v>51</v>
       </c>
@@ -1743,8 +1790,11 @@
       <c r="Q19" s="27">
         <v>290.60000000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" s="1" customFormat="1">
+      <c r="R19" s="27">
+        <v>285.60000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -1796,8 +1846,11 @@
       <c r="Q20" s="27">
         <v>304.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" s="1" customFormat="1">
+      <c r="R20" s="27">
+        <v>248.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
         <v>48</v>
       </c>
@@ -1849,8 +1902,11 @@
       <c r="Q21" s="27">
         <v>330.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" s="1" customFormat="1">
+      <c r="R21" s="27">
+        <v>259.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
         <v>51</v>
       </c>
@@ -1902,8 +1958,11 @@
       <c r="Q22" s="27">
         <v>278.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" s="1" customFormat="1">
+      <c r="R22" s="27">
+        <v>236.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -1955,8 +2014,11 @@
       <c r="Q23" s="27">
         <v>339.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" s="1" customFormat="1">
+      <c r="R23" s="27">
+        <v>347.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
         <v>48</v>
       </c>
@@ -2008,8 +2070,11 @@
       <c r="Q24" s="27">
         <v>369.6</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" s="1" customFormat="1">
+      <c r="R24" s="27">
+        <v>361.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
         <v>51</v>
       </c>
@@ -2061,8 +2126,11 @@
       <c r="Q25" s="27">
         <v>308</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" s="1" customFormat="1">
+      <c r="R25" s="27">
+        <v>333.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
         <v>23</v>
       </c>
@@ -2114,8 +2182,11 @@
       <c r="Q26" s="27">
         <v>405.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="R26" s="27">
+        <v>391.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="5" t="s">
         <v>48</v>
       </c>
@@ -2167,8 +2238,11 @@
       <c r="Q27" s="27">
         <v>412.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="R27" s="27">
+        <v>400.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="5" t="s">
         <v>51</v>
       </c>
@@ -2220,8 +2294,11 @@
       <c r="Q28" s="27">
         <v>398.8</v>
       </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="R28" s="27">
+        <v>381.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="7" t="s">
         <v>25</v>
       </c>
@@ -2273,8 +2350,11 @@
       <c r="Q29" s="27">
         <v>254</v>
       </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="R29" s="27">
+        <v>255.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="7" t="s">
         <v>48</v>
       </c>
@@ -2326,8 +2406,11 @@
       <c r="Q30" s="27">
         <v>253.1</v>
       </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="R30" s="27">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="7" t="s">
         <v>51</v>
       </c>
@@ -2379,8 +2462,11 @@
       <c r="Q31" s="27">
         <v>254.9</v>
       </c>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="R31" s="27">
+        <v>255.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="7" t="s">
         <v>28</v>
       </c>
@@ -2432,8 +2518,11 @@
       <c r="Q32" s="27">
         <v>287.3</v>
       </c>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="R32" s="27">
+        <v>258.89999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="7" t="s">
         <v>48</v>
       </c>
@@ -2485,8 +2574,11 @@
       <c r="Q33" s="27">
         <v>291.39999999999998</v>
       </c>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="R33" s="27">
+        <v>271.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="7" t="s">
         <v>51</v>
       </c>
@@ -2538,8 +2630,11 @@
       <c r="Q34" s="27">
         <v>283.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="R34" s="27">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="21" t="s">
         <v>45</v>
       </c>
@@ -2563,8 +2658,9 @@
       <c r="O35" s="32"/>
       <c r="P35" s="32"/>
       <c r="Q35" s="32"/>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="R35" s="32"/>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="23" t="s">
         <v>11</v>
       </c>
@@ -2616,8 +2712,11 @@
       <c r="Q36" s="38">
         <v>63.8</v>
       </c>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="R36" s="38">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="41" t="s">
         <v>48</v>
       </c>
@@ -2669,8 +2768,11 @@
       <c r="Q37" s="39">
         <v>67.599999999999994</v>
       </c>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="R37" s="39">
+        <v>62.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" s="41" t="s">
         <v>51</v>
       </c>
@@ -2722,8 +2824,11 @@
       <c r="Q38" s="39">
         <v>60</v>
       </c>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="R38" s="39">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" s="7" t="s">
         <v>13</v>
       </c>
@@ -2775,8 +2880,11 @@
       <c r="Q39" s="40">
         <v>34.1</v>
       </c>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="R39" s="40">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" s="7" t="s">
         <v>48</v>
       </c>
@@ -2828,8 +2936,11 @@
       <c r="Q40" s="40">
         <v>32.9</v>
       </c>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="R40" s="40">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" s="7" t="s">
         <v>51</v>
       </c>
@@ -2881,8 +2992,11 @@
       <c r="Q41" s="40">
         <v>35.299999999999997</v>
       </c>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="R41" s="40">
+        <v>43.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" s="7" t="s">
         <v>15</v>
       </c>
@@ -2934,8 +3048,11 @@
       <c r="Q42" s="40">
         <v>50.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:17">
+      <c r="R42" s="40">
+        <v>46.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" s="7" t="s">
         <v>48</v>
       </c>
@@ -2987,8 +3104,11 @@
       <c r="Q43" s="40">
         <v>49.3</v>
       </c>
-    </row>
-    <row r="44" spans="1:17">
+      <c r="R43" s="40">
+        <v>48.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" s="7" t="s">
         <v>51</v>
       </c>
@@ -3040,8 +3160,11 @@
       <c r="Q44" s="40">
         <v>51.7</v>
       </c>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="R44" s="40">
+        <v>43.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" s="7" t="s">
         <v>16</v>
       </c>
@@ -3093,8 +3216,11 @@
       <c r="Q45" s="40">
         <v>85.6</v>
       </c>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="R45" s="40">
+        <v>82.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" s="7" t="s">
         <v>48</v>
       </c>
@@ -3146,8 +3272,11 @@
       <c r="Q46" s="40">
         <v>99</v>
       </c>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="R46" s="40">
+        <v>93.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" s="7" t="s">
         <v>51</v>
       </c>
@@ -3199,8 +3328,11 @@
       <c r="Q47" s="40">
         <v>72.3</v>
       </c>
-    </row>
-    <row r="48" spans="1:17">
+      <c r="R47" s="40">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" s="7" t="s">
         <v>17</v>
       </c>
@@ -3252,8 +3384,11 @@
       <c r="Q48" s="40">
         <v>80.400000000000006</v>
       </c>
-    </row>
-    <row r="49" spans="1:17">
+      <c r="R48" s="40">
+        <v>71.599999999999994</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" s="7" t="s">
         <v>48</v>
       </c>
@@ -3305,8 +3440,11 @@
       <c r="Q49" s="40">
         <v>93.9</v>
       </c>
-    </row>
-    <row r="50" spans="1:17">
+      <c r="R49" s="40">
+        <v>81.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" s="7" t="s">
         <v>51</v>
       </c>
@@ -3358,8 +3496,11 @@
       <c r="Q50" s="40">
         <v>66.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:17">
+      <c r="R50" s="40">
+        <v>61.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" s="7" t="s">
         <v>19</v>
       </c>
@@ -3411,8 +3552,11 @@
       <c r="Q51" s="40">
         <v>51.9</v>
       </c>
-    </row>
-    <row r="52" spans="1:17">
+      <c r="R51" s="40">
+        <v>45.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" s="7" t="s">
         <v>48</v>
       </c>
@@ -3464,8 +3608,11 @@
       <c r="Q52" s="40">
         <v>56.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:17">
+      <c r="R52" s="40">
+        <v>50.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" s="7" t="s">
         <v>51</v>
       </c>
@@ -3517,8 +3664,11 @@
       <c r="Q53" s="40">
         <v>47.2</v>
       </c>
-    </row>
-    <row r="54" spans="1:17">
+      <c r="R53" s="40">
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" s="7" t="s">
         <v>21</v>
       </c>
@@ -3570,8 +3720,11 @@
       <c r="Q54" s="40">
         <v>75.400000000000006</v>
       </c>
-    </row>
-    <row r="55" spans="1:17">
+      <c r="R54" s="40">
+        <v>52.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" s="7" t="s">
         <v>48</v>
       </c>
@@ -3623,8 +3776,11 @@
       <c r="Q55" s="40">
         <v>85.2</v>
       </c>
-    </row>
-    <row r="56" spans="1:17">
+      <c r="R55" s="40">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" s="7" t="s">
         <v>51</v>
       </c>
@@ -3676,8 +3832,11 @@
       <c r="Q56" s="40">
         <v>65.400000000000006</v>
       </c>
-    </row>
-    <row r="57" spans="1:17">
+      <c r="R56" s="40">
+        <v>45.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" s="7" t="s">
         <v>23</v>
       </c>
@@ -3729,8 +3888,11 @@
       <c r="Q57" s="40">
         <v>93.3</v>
       </c>
-    </row>
-    <row r="58" spans="1:17">
+      <c r="R57" s="40">
+        <v>94.9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" s="7" t="s">
         <v>48</v>
       </c>
@@ -3782,8 +3944,11 @@
       <c r="Q58" s="40">
         <v>103.9</v>
       </c>
-    </row>
-    <row r="59" spans="1:17">
+      <c r="R58" s="40">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" s="7" t="s">
         <v>51</v>
       </c>
@@ -3835,8 +4000,11 @@
       <c r="Q59" s="40">
         <v>83.1</v>
       </c>
-    </row>
-    <row r="60" spans="1:17">
+      <c r="R59" s="40">
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" s="7" t="s">
         <v>25</v>
       </c>
@@ -3888,8 +4056,11 @@
       <c r="Q60" s="40">
         <v>68.8</v>
       </c>
-    </row>
-    <row r="61" spans="1:17">
+      <c r="R60" s="40">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" s="7" t="s">
         <v>48</v>
       </c>
@@ -3941,8 +4112,11 @@
       <c r="Q61" s="40">
         <v>67.3</v>
       </c>
-    </row>
-    <row r="62" spans="1:17">
+      <c r="R61" s="40">
+        <v>62.7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" s="7" t="s">
         <v>51</v>
       </c>
@@ -3994,8 +4168,11 @@
       <c r="Q62" s="40">
         <v>70.2</v>
       </c>
-    </row>
-    <row r="63" spans="1:17">
+      <c r="R62" s="40">
+        <v>60.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63" s="7" t="s">
         <v>28</v>
       </c>
@@ -4047,8 +4224,11 @@
       <c r="Q63" s="40">
         <v>52</v>
       </c>
-    </row>
-    <row r="64" spans="1:17">
+      <c r="R63" s="40">
+        <v>54.9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64" s="7" t="s">
         <v>48</v>
       </c>
@@ -4100,8 +4280,11 @@
       <c r="Q64" s="40">
         <v>52.6</v>
       </c>
-    </row>
-    <row r="65" spans="1:17">
+      <c r="R64" s="40">
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" s="7" t="s">
         <v>51</v>
       </c>
@@ -4153,8 +4336,11 @@
       <c r="Q65" s="40">
         <v>51.4</v>
       </c>
-    </row>
-    <row r="66" spans="1:17">
+      <c r="R65" s="40">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" s="22" t="s">
         <v>42</v>
       </c>
@@ -4178,8 +4364,9 @@
       <c r="O66" s="32"/>
       <c r="P66" s="32"/>
       <c r="Q66" s="32"/>
-    </row>
-    <row r="67" spans="1:17">
+      <c r="R66" s="32"/>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" s="23" t="s">
         <v>11</v>
       </c>
@@ -4231,8 +4418,11 @@
       <c r="Q67" s="37">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="68" spans="1:17">
+      <c r="R67" s="37">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" s="23" t="s">
         <v>48</v>
       </c>
@@ -4284,8 +4474,11 @@
       <c r="Q68" s="37">
         <v>9</v>
       </c>
-    </row>
-    <row r="69" spans="1:17">
+      <c r="R68" s="37">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69" s="23" t="s">
         <v>51</v>
       </c>
@@ -4337,8 +4530,11 @@
       <c r="Q69" s="37">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="70" spans="1:17">
+      <c r="R69" s="37">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70" s="7" t="s">
         <v>13</v>
       </c>
@@ -4390,8 +4586,11 @@
       <c r="Q70" s="36">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="71" spans="1:17">
+      <c r="R70" s="36">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71" s="7" t="s">
         <v>48</v>
       </c>
@@ -4443,8 +4642,11 @@
       <c r="Q71" s="36">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="1:17">
+      <c r="R71" s="36">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72" s="7" t="s">
         <v>51</v>
       </c>
@@ -4496,8 +4698,11 @@
       <c r="Q72" s="36">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="73" spans="1:17">
+      <c r="R72" s="36">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73" s="7" t="s">
         <v>15</v>
       </c>
@@ -4549,8 +4754,11 @@
       <c r="Q73" s="36">
         <v>16</v>
       </c>
-    </row>
-    <row r="74" spans="1:17">
+      <c r="R73" s="36">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74" s="7" t="s">
         <v>48</v>
       </c>
@@ -4602,8 +4810,11 @@
       <c r="Q74" s="36">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="75" spans="1:17">
+      <c r="R74" s="36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75" s="7" t="s">
         <v>51</v>
       </c>
@@ -4655,8 +4866,11 @@
       <c r="Q75" s="36">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:17">
+      <c r="R75" s="36">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76" s="7" t="s">
         <v>16</v>
       </c>
@@ -4708,8 +4922,11 @@
       <c r="Q76" s="36">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="77" spans="1:17">
+      <c r="R76" s="36">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77" s="7" t="s">
         <v>48</v>
       </c>
@@ -4761,8 +4978,11 @@
       <c r="Q77" s="36">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="78" spans="1:17">
+      <c r="R77" s="36">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78" s="7" t="s">
         <v>51</v>
       </c>
@@ -4814,8 +5034,11 @@
       <c r="Q78" s="36">
         <v>16</v>
       </c>
-    </row>
-    <row r="79" spans="1:17">
+      <c r="R78" s="36">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79" s="7" t="s">
         <v>17</v>
       </c>
@@ -4867,8 +5090,11 @@
       <c r="Q79" s="36">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="80" spans="1:17">
+      <c r="R79" s="36">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80" s="7" t="s">
         <v>48</v>
       </c>
@@ -4920,8 +5146,11 @@
       <c r="Q80" s="36">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="81" spans="1:17">
+      <c r="R80" s="36">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81" s="7" t="s">
         <v>51</v>
       </c>
@@ -4973,8 +5202,11 @@
       <c r="Q81" s="36">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="82" spans="1:17">
+      <c r="R81" s="36">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82" s="7" t="s">
         <v>19</v>
       </c>
@@ -5026,8 +5258,11 @@
       <c r="Q82" s="36">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="83" spans="1:17">
+      <c r="R82" s="36">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83" s="7" t="s">
         <v>48</v>
       </c>
@@ -5079,8 +5314,11 @@
       <c r="Q83" s="36">
         <v>6</v>
       </c>
-    </row>
-    <row r="84" spans="1:17">
+      <c r="R83" s="36">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
       <c r="A84" s="7" t="s">
         <v>51</v>
       </c>
@@ -5132,8 +5370,11 @@
       <c r="Q84" s="36">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="85" spans="1:17">
+      <c r="R84" s="36">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85" s="7" t="s">
         <v>21</v>
       </c>
@@ -5185,8 +5426,11 @@
       <c r="Q85" s="36">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="86" spans="1:17">
+      <c r="R85" s="36">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86" s="7" t="s">
         <v>48</v>
       </c>
@@ -5238,8 +5482,11 @@
       <c r="Q86" s="36">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="87" spans="1:17">
+      <c r="R86" s="36">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87" s="7" t="s">
         <v>51</v>
       </c>
@@ -5291,8 +5538,11 @@
       <c r="Q87" s="36">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="88" spans="1:17">
+      <c r="R87" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
       <c r="A88" s="7" t="s">
         <v>23</v>
       </c>
@@ -5344,8 +5594,11 @@
       <c r="Q88" s="36">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="89" spans="1:17">
+      <c r="R88" s="36">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
       <c r="A89" s="7" t="s">
         <v>48</v>
       </c>
@@ -5397,8 +5650,11 @@
       <c r="Q89" s="36">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="90" spans="1:17">
+      <c r="R89" s="36">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
       <c r="A90" s="7" t="s">
         <v>51</v>
       </c>
@@ -5450,8 +5706,11 @@
       <c r="Q90" s="36">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="91" spans="1:17">
+      <c r="R90" s="36">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
       <c r="A91" s="7" t="s">
         <v>25</v>
       </c>
@@ -5503,8 +5762,11 @@
       <c r="Q91" s="36">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="92" spans="1:17">
+      <c r="R91" s="36">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
       <c r="A92" s="7" t="s">
         <v>48</v>
       </c>
@@ -5556,8 +5818,11 @@
       <c r="Q92" s="36">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="93" spans="1:17">
+      <c r="R92" s="36">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
       <c r="A93" s="7" t="s">
         <v>51</v>
       </c>
@@ -5609,8 +5874,11 @@
       <c r="Q93" s="36">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="94" spans="1:17">
+      <c r="R93" s="36">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
       <c r="A94" s="7" t="s">
         <v>28</v>
       </c>
@@ -5662,8 +5930,11 @@
       <c r="Q94" s="36">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="95" spans="1:17">
+      <c r="R94" s="36">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
       <c r="A95" s="7" t="s">
         <v>48</v>
       </c>
@@ -5715,8 +5986,11 @@
       <c r="Q95" s="36">
         <v>13</v>
       </c>
-    </row>
-    <row r="96" spans="1:17">
+      <c r="R95" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
       <c r="A96" s="7" t="s">
         <v>51</v>
       </c>
@@ -5768,8 +6042,11 @@
       <c r="Q96" s="36">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="97" spans="1:17">
+      <c r="R96" s="36">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
       <c r="A97" s="22" t="s">
         <v>39</v>
       </c>
@@ -5793,8 +6070,9 @@
       <c r="O97" s="32"/>
       <c r="P97" s="32"/>
       <c r="Q97" s="32"/>
-    </row>
-    <row r="98" spans="1:17">
+      <c r="R97" s="32"/>
+    </row>
+    <row r="98" spans="1:18">
       <c r="A98" s="3" t="s">
         <v>11</v>
       </c>
@@ -5846,8 +6124,11 @@
       <c r="Q98" s="16">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="99" spans="1:17">
+      <c r="R98" s="16">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
       <c r="A99" s="3" t="s">
         <v>48</v>
       </c>
@@ -5899,8 +6180,11 @@
       <c r="Q99" s="16">
         <v>19.600000000000001</v>
       </c>
-    </row>
-    <row r="100" spans="1:17">
+      <c r="R99" s="16">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
       <c r="A100" s="3" t="s">
         <v>51</v>
       </c>
@@ -5952,8 +6236,11 @@
       <c r="Q100" s="16">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="101" spans="1:17">
+      <c r="R100" s="16">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
       <c r="A101" s="5" t="s">
         <v>13</v>
       </c>
@@ -6005,8 +6292,11 @@
       <c r="Q101" s="27">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="102" spans="1:17">
+      <c r="R101" s="27">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
       <c r="A102" s="5" t="s">
         <v>48</v>
       </c>
@@ -6058,8 +6348,11 @@
       <c r="Q102" s="27">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="103" spans="1:17">
+      <c r="R102" s="27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
       <c r="A103" s="5" t="s">
         <v>51</v>
       </c>
@@ -6111,8 +6404,11 @@
       <c r="Q103" s="27">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="104" spans="1:17">
+      <c r="R103" s="27">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
       <c r="A104" s="5" t="s">
         <v>15</v>
       </c>
@@ -6164,8 +6460,11 @@
       <c r="Q104" s="27">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="105" spans="1:17">
+      <c r="R104" s="27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18">
       <c r="A105" s="5" t="s">
         <v>48</v>
       </c>
@@ -6217,8 +6516,11 @@
       <c r="Q105" s="27">
         <v>19.399999999999999</v>
       </c>
-    </row>
-    <row r="106" spans="1:17">
+      <c r="R105" s="27">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18">
       <c r="A106" s="5" t="s">
         <v>51</v>
       </c>
@@ -6270,8 +6572,11 @@
       <c r="Q106" s="27">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="107" spans="1:17">
+      <c r="R106" s="27">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
       <c r="A107" s="5" t="s">
         <v>16</v>
       </c>
@@ -6323,8 +6628,11 @@
       <c r="Q107" s="27">
         <v>35.1</v>
       </c>
-    </row>
-    <row r="108" spans="1:17">
+      <c r="R107" s="27">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18">
       <c r="A108" s="5" t="s">
         <v>48</v>
       </c>
@@ -6376,8 +6684,11 @@
       <c r="Q108" s="27">
         <v>42.3</v>
       </c>
-    </row>
-    <row r="109" spans="1:17">
+      <c r="R108" s="27">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18">
       <c r="A109" s="5" t="s">
         <v>51</v>
       </c>
@@ -6429,8 +6740,11 @@
       <c r="Q109" s="27">
         <v>27.9</v>
       </c>
-    </row>
-    <row r="110" spans="1:17">
+      <c r="R109" s="27">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18">
       <c r="A110" s="5" t="s">
         <v>17</v>
       </c>
@@ -6482,8 +6796,11 @@
       <c r="Q110" s="27">
         <v>48.8</v>
       </c>
-    </row>
-    <row r="111" spans="1:17">
+      <c r="R110" s="27">
+        <v>43.7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18">
       <c r="A111" s="5" t="s">
         <v>48</v>
       </c>
@@ -6535,8 +6852,11 @@
       <c r="Q111" s="27">
         <v>51.3</v>
       </c>
-    </row>
-    <row r="112" spans="1:17">
+      <c r="R111" s="27">
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18">
       <c r="A112" s="5" t="s">
         <v>51</v>
       </c>
@@ -6588,8 +6908,11 @@
       <c r="Q112" s="27">
         <v>46.2</v>
       </c>
-    </row>
-    <row r="113" spans="1:17">
+      <c r="R112" s="27">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18">
       <c r="A113" s="5" t="s">
         <v>19</v>
       </c>
@@ -6641,8 +6964,11 @@
       <c r="Q113" s="27">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="114" spans="1:17">
+      <c r="R113" s="27">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18">
       <c r="A114" s="5" t="s">
         <v>48</v>
       </c>
@@ -6694,8 +7020,11 @@
       <c r="Q114" s="27">
         <v>21.6</v>
       </c>
-    </row>
-    <row r="115" spans="1:17">
+      <c r="R114" s="27">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18">
       <c r="A115" s="5" t="s">
         <v>51</v>
       </c>
@@ -6747,8 +7076,11 @@
       <c r="Q115" s="27">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="116" spans="1:17">
+      <c r="R115" s="27">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18">
       <c r="A116" s="5" t="s">
         <v>21</v>
       </c>
@@ -6800,8 +7132,11 @@
       <c r="Q116" s="27">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="117" spans="1:17">
+      <c r="R116" s="27">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18">
       <c r="A117" s="5" t="s">
         <v>48</v>
       </c>
@@ -6853,8 +7188,11 @@
       <c r="Q117" s="27">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="118" spans="1:17">
+      <c r="R117" s="27">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18">
       <c r="A118" s="5" t="s">
         <v>51</v>
       </c>
@@ -6906,8 +7244,11 @@
       <c r="Q118" s="27">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="119" spans="1:17">
+      <c r="R118" s="27">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18">
       <c r="A119" s="5" t="s">
         <v>23</v>
       </c>
@@ -6959,8 +7300,11 @@
       <c r="Q119" s="27">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="120" spans="1:17">
+      <c r="R119" s="27">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18">
       <c r="A120" s="5" t="s">
         <v>48</v>
       </c>
@@ -7012,8 +7356,11 @@
       <c r="Q120" s="27">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="121" spans="1:17">
+      <c r="R120" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18">
       <c r="A121" s="5" t="s">
         <v>51</v>
       </c>
@@ -7065,8 +7412,11 @@
       <c r="Q121" s="27">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="122" spans="1:17">
+      <c r="R121" s="27">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18">
       <c r="A122" s="7" t="s">
         <v>25</v>
       </c>
@@ -7118,8 +7468,11 @@
       <c r="Q122" s="27">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="123" spans="1:17">
+      <c r="R122" s="27">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18">
       <c r="A123" s="7" t="s">
         <v>48</v>
       </c>
@@ -7171,8 +7524,11 @@
       <c r="Q123" s="27">
         <v>9</v>
       </c>
-    </row>
-    <row r="124" spans="1:17">
+      <c r="R123" s="27">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18">
       <c r="A124" s="7" t="s">
         <v>51</v>
       </c>
@@ -7224,8 +7580,11 @@
       <c r="Q124" s="27">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="125" spans="1:17">
+      <c r="R124" s="27">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18">
       <c r="A125" s="7" t="s">
         <v>28</v>
       </c>
@@ -7277,8 +7636,11 @@
       <c r="Q125" s="27">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="126" spans="1:17">
+      <c r="R125" s="27">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18">
       <c r="A126" s="7" t="s">
         <v>48</v>
       </c>
@@ -7330,8 +7692,11 @@
       <c r="Q126" s="27">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="127" spans="1:17" ht="15.75" thickBot="1">
+      <c r="R126" s="27">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" ht="15.75" thickBot="1">
       <c r="A127" s="8" t="s">
         <v>51</v>
       </c>
@@ -7382,6 +7747,9 @@
       </c>
       <c r="Q127" s="28">
         <v>8</v>
+      </c>
+      <c r="R127" s="28">
+        <v>8.3000000000000007</v>
       </c>
     </row>
   </sheetData>

--- a/untranslated/downloads/data-excel/3.4.1.xlsx
+++ b/untranslated/downloads/data-excel/3.4.1.xlsx
@@ -364,7 +364,7 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -494,6 +494,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -815,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R127"/>
+  <dimension ref="A1:S127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -830,7 +844,7 @@
     <col min="16" max="16" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="48">
+    <row r="1" spans="1:19" ht="48">
       <c r="A1" s="31" t="s">
         <v>34</v>
       </c>
@@ -854,7 +868,7 @@
       <c r="O1" s="33"/>
       <c r="P1" s="33"/>
     </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" thickBot="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1">
       <c r="A2" s="33"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -872,7 +886,7 @@
       <c r="O2" s="33"/>
       <c r="P2" s="33"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -927,8 +941,11 @@
       <c r="R3" s="14">
         <v>2021</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" s="14">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="21" t="s">
         <v>47</v>
       </c>
@@ -953,8 +970,9 @@
       <c r="P4" s="20"/>
       <c r="Q4" s="20"/>
       <c r="R4" s="20"/>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="47"/>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1009,8 +1027,11 @@
       <c r="R5" s="16">
         <v>297.10000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" s="48">
+        <v>234.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="3" t="s">
         <v>48</v>
       </c>
@@ -1065,8 +1086,11 @@
       <c r="R6" s="16">
         <v>311</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" s="48">
+        <v>252.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="3" t="s">
         <v>51</v>
       </c>
@@ -1121,8 +1145,11 @@
       <c r="R7" s="16">
         <v>283.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="48">
+        <v>216.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -1177,8 +1204,11 @@
       <c r="R8" s="27">
         <v>281.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" s="49">
+        <v>242.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="5" t="s">
         <v>48</v>
       </c>
@@ -1233,8 +1263,11 @@
       <c r="R9" s="27">
         <v>299.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" s="49">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
@@ -1289,8 +1322,11 @@
       <c r="R10" s="27">
         <v>263.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" s="49">
+        <v>219.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -1345,8 +1381,11 @@
       <c r="R11" s="27">
         <v>287.10000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" s="49">
+        <v>228.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="5" t="s">
         <v>48</v>
       </c>
@@ -1401,8 +1440,11 @@
       <c r="R12" s="27">
         <v>313.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" s="49">
+        <v>245.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="5" t="s">
         <v>51</v>
       </c>
@@ -1457,8 +1499,11 @@
       <c r="R13" s="27">
         <v>260.10000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" s="1" customFormat="1">
+      <c r="S13" s="49">
+        <v>211.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -1513,8 +1558,11 @@
       <c r="R14" s="27">
         <v>358.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" s="1" customFormat="1">
+      <c r="S14" s="49">
+        <v>264.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
         <v>48</v>
       </c>
@@ -1569,8 +1617,11 @@
       <c r="R15" s="27">
         <v>360.7</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" s="1" customFormat="1">
+      <c r="S15" s="49">
+        <v>280.89999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
         <v>51</v>
       </c>
@@ -1625,8 +1676,11 @@
       <c r="R16" s="27">
         <v>355.7</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" s="1" customFormat="1">
+      <c r="S16" s="49">
+        <v>247.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
@@ -1681,8 +1735,11 @@
       <c r="R17" s="27">
         <v>332.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" s="1" customFormat="1">
+      <c r="S17" s="49">
+        <v>233.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
         <v>48</v>
       </c>
@@ -1737,8 +1794,11 @@
       <c r="R18" s="27">
         <v>377.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" s="1" customFormat="1">
+      <c r="S18" s="49">
+        <v>247.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
         <v>51</v>
       </c>
@@ -1793,8 +1853,11 @@
       <c r="R19" s="27">
         <v>285.60000000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" s="1" customFormat="1">
+      <c r="S19" s="49">
+        <v>218.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -1849,8 +1912,11 @@
       <c r="R20" s="27">
         <v>248.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" s="1" customFormat="1">
+      <c r="S20" s="49">
+        <v>207.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
         <v>48</v>
       </c>
@@ -1905,8 +1971,11 @@
       <c r="R21" s="27">
         <v>259.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" s="1" customFormat="1">
+      <c r="S21" s="49">
+        <v>229.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
         <v>51</v>
       </c>
@@ -1961,8 +2030,11 @@
       <c r="R22" s="27">
         <v>236.8</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" s="1" customFormat="1">
+      <c r="S22" s="49">
+        <v>184.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -2017,8 +2089,11 @@
       <c r="R23" s="27">
         <v>347.9</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" s="1" customFormat="1">
+      <c r="S23" s="49">
+        <v>266.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
         <v>48</v>
       </c>
@@ -2073,8 +2148,11 @@
       <c r="R24" s="27">
         <v>361.7</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" s="1" customFormat="1">
+      <c r="S24" s="49">
+        <v>315.10000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
         <v>51</v>
       </c>
@@ -2129,8 +2207,11 @@
       <c r="R25" s="27">
         <v>333.8</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" s="1" customFormat="1">
+      <c r="S25" s="49">
+        <v>216.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
         <v>23</v>
       </c>
@@ -2185,8 +2266,11 @@
       <c r="R26" s="27">
         <v>391.1</v>
       </c>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="S26" s="49">
+        <v>291.89999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="5" t="s">
         <v>48</v>
       </c>
@@ -2241,8 +2325,11 @@
       <c r="R27" s="27">
         <v>400.7</v>
       </c>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="S27" s="49">
+        <v>308.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="5" t="s">
         <v>51</v>
       </c>
@@ -2297,8 +2384,11 @@
       <c r="R28" s="27">
         <v>381.9</v>
       </c>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="S28" s="49">
+        <v>275.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="7" t="s">
         <v>25</v>
       </c>
@@ -2353,8 +2443,11 @@
       <c r="R29" s="27">
         <v>255.7</v>
       </c>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="S29" s="49">
+        <v>208.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="7" t="s">
         <v>48</v>
       </c>
@@ -2409,8 +2502,11 @@
       <c r="R30" s="27">
         <v>256</v>
       </c>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="S30" s="49">
+        <v>216.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="7" t="s">
         <v>51</v>
       </c>
@@ -2465,8 +2561,11 @@
       <c r="R31" s="27">
         <v>255.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="S31" s="49">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="7" t="s">
         <v>28</v>
       </c>
@@ -2521,8 +2620,11 @@
       <c r="R32" s="27">
         <v>258.89999999999998</v>
       </c>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="S32" s="49">
+        <v>196.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="7" t="s">
         <v>48</v>
       </c>
@@ -2577,8 +2679,11 @@
       <c r="R33" s="27">
         <v>271.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="S33" s="49">
+        <v>203.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="7" t="s">
         <v>51</v>
       </c>
@@ -2633,8 +2738,11 @@
       <c r="R34" s="27">
         <v>247</v>
       </c>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="S34" s="49">
+        <v>188.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="21" t="s">
         <v>45</v>
       </c>
@@ -2659,8 +2767,9 @@
       <c r="P35" s="32"/>
       <c r="Q35" s="32"/>
       <c r="R35" s="32"/>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="S35" s="33"/>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="23" t="s">
         <v>11</v>
       </c>
@@ -2715,8 +2824,11 @@
       <c r="R36" s="38">
         <v>59.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="S36" s="48">
+        <v>54.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="41" t="s">
         <v>48</v>
       </c>
@@ -2771,8 +2883,11 @@
       <c r="R37" s="39">
         <v>62.7</v>
       </c>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="S37" s="50">
+        <v>59.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="41" t="s">
         <v>51</v>
       </c>
@@ -2827,8 +2942,11 @@
       <c r="R38" s="39">
         <v>56.4</v>
       </c>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="S38" s="50">
+        <v>50.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="7" t="s">
         <v>13</v>
       </c>
@@ -2883,8 +3001,11 @@
       <c r="R39" s="40">
         <v>37.799999999999997</v>
       </c>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="S39" s="49">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="7" t="s">
         <v>48</v>
       </c>
@@ -2939,8 +3060,11 @@
       <c r="R40" s="40">
         <v>31.9</v>
       </c>
-    </row>
-    <row r="41" spans="1:18">
+      <c r="S40" s="49">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" s="7" t="s">
         <v>51</v>
       </c>
@@ -2995,8 +3119,11 @@
       <c r="R41" s="40">
         <v>43.8</v>
       </c>
-    </row>
-    <row r="42" spans="1:18">
+      <c r="S41" s="49">
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="7" t="s">
         <v>15</v>
       </c>
@@ -3051,8 +3178,11 @@
       <c r="R42" s="40">
         <v>46.2</v>
       </c>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="S42" s="49">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="7" t="s">
         <v>48</v>
       </c>
@@ -3107,8 +3237,11 @@
       <c r="R43" s="40">
         <v>48.9</v>
       </c>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="S43" s="49">
+        <v>47.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="7" t="s">
         <v>51</v>
       </c>
@@ -3163,8 +3296,11 @@
       <c r="R44" s="40">
         <v>43.6</v>
       </c>
-    </row>
-    <row r="45" spans="1:18">
+      <c r="S44" s="49">
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="7" t="s">
         <v>16</v>
       </c>
@@ -3219,8 +3355,11 @@
       <c r="R45" s="40">
         <v>82.4</v>
       </c>
-    </row>
-    <row r="46" spans="1:18">
+      <c r="S45" s="49">
+        <v>69.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="7" t="s">
         <v>48</v>
       </c>
@@ -3275,8 +3414,11 @@
       <c r="R46" s="40">
         <v>93.3</v>
       </c>
-    </row>
-    <row r="47" spans="1:18">
+      <c r="S46" s="49">
+        <v>77.400000000000006</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="7" t="s">
         <v>51</v>
       </c>
@@ -3331,8 +3473,11 @@
       <c r="R47" s="40">
         <v>71.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:18">
+      <c r="S47" s="49">
+        <v>62.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" s="7" t="s">
         <v>17</v>
       </c>
@@ -3387,8 +3532,11 @@
       <c r="R48" s="40">
         <v>71.599999999999994</v>
       </c>
-    </row>
-    <row r="49" spans="1:18">
+      <c r="S48" s="49">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" s="7" t="s">
         <v>48</v>
       </c>
@@ -3443,8 +3591,11 @@
       <c r="R49" s="40">
         <v>81.7</v>
       </c>
-    </row>
-    <row r="50" spans="1:18">
+      <c r="S49" s="49">
+        <v>61.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="7" t="s">
         <v>51</v>
       </c>
@@ -3499,8 +3650,11 @@
       <c r="R50" s="40">
         <v>61.2</v>
       </c>
-    </row>
-    <row r="51" spans="1:18">
+      <c r="S50" s="49">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="7" t="s">
         <v>19</v>
       </c>
@@ -3555,8 +3709,11 @@
       <c r="R51" s="40">
         <v>45.9</v>
       </c>
-    </row>
-    <row r="52" spans="1:18">
+      <c r="S51" s="49">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="7" t="s">
         <v>48</v>
       </c>
@@ -3611,8 +3768,11 @@
       <c r="R52" s="40">
         <v>50.3</v>
       </c>
-    </row>
-    <row r="53" spans="1:18">
+      <c r="S52" s="49">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="7" t="s">
         <v>51</v>
       </c>
@@ -3667,8 +3827,11 @@
       <c r="R53" s="40">
         <v>41.4</v>
       </c>
-    </row>
-    <row r="54" spans="1:18">
+      <c r="S53" s="49">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" s="7" t="s">
         <v>21</v>
       </c>
@@ -3723,8 +3886,11 @@
       <c r="R54" s="40">
         <v>52.1</v>
       </c>
-    </row>
-    <row r="55" spans="1:18">
+      <c r="S54" s="49">
+        <v>57.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" s="7" t="s">
         <v>48</v>
       </c>
@@ -3779,8 +3945,11 @@
       <c r="R55" s="40">
         <v>58.8</v>
       </c>
-    </row>
-    <row r="56" spans="1:18">
+      <c r="S55" s="49">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" s="7" t="s">
         <v>51</v>
       </c>
@@ -3835,8 +4004,11 @@
       <c r="R56" s="40">
         <v>45.3</v>
       </c>
-    </row>
-    <row r="57" spans="1:18">
+      <c r="S56" s="49">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" s="7" t="s">
         <v>23</v>
       </c>
@@ -3891,8 +4063,11 @@
       <c r="R57" s="40">
         <v>94.9</v>
       </c>
-    </row>
-    <row r="58" spans="1:18">
+      <c r="S57" s="49">
+        <v>78.099999999999994</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58" s="7" t="s">
         <v>48</v>
       </c>
@@ -3947,8 +4122,11 @@
       <c r="R58" s="40">
         <v>99.5</v>
       </c>
-    </row>
-    <row r="59" spans="1:18">
+      <c r="S58" s="49">
+        <v>83.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59" s="7" t="s">
         <v>51</v>
       </c>
@@ -4003,8 +4181,11 @@
       <c r="R59" s="40">
         <v>90.4</v>
       </c>
-    </row>
-    <row r="60" spans="1:18">
+      <c r="S59" s="49">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60" s="7" t="s">
         <v>25</v>
       </c>
@@ -4059,8 +4240,11 @@
       <c r="R60" s="40">
         <v>61.4</v>
       </c>
-    </row>
-    <row r="61" spans="1:18">
+      <c r="S60" s="49">
+        <v>60.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61" s="7" t="s">
         <v>48</v>
       </c>
@@ -4115,8 +4299,11 @@
       <c r="R61" s="40">
         <v>62.7</v>
       </c>
-    </row>
-    <row r="62" spans="1:18">
+      <c r="S61" s="49">
+        <v>63.9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62" s="7" t="s">
         <v>51</v>
       </c>
@@ -4171,8 +4358,11 @@
       <c r="R62" s="40">
         <v>60.2</v>
       </c>
-    </row>
-    <row r="63" spans="1:18">
+      <c r="S62" s="49">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63" s="7" t="s">
         <v>28</v>
       </c>
@@ -4227,8 +4417,11 @@
       <c r="R63" s="40">
         <v>54.9</v>
       </c>
-    </row>
-    <row r="64" spans="1:18">
+      <c r="S63" s="49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64" s="7" t="s">
         <v>48</v>
       </c>
@@ -4283,8 +4476,11 @@
       <c r="R64" s="40">
         <v>54.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:18">
+      <c r="S64" s="49">
+        <v>46.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
       <c r="A65" s="7" t="s">
         <v>51</v>
       </c>
@@ -4339,8 +4535,11 @@
       <c r="R65" s="40">
         <v>55.2</v>
       </c>
-    </row>
-    <row r="66" spans="1:18">
+      <c r="S65" s="49">
+        <v>50.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
       <c r="A66" s="22" t="s">
         <v>42</v>
       </c>
@@ -4365,8 +4564,9 @@
       <c r="P66" s="32"/>
       <c r="Q66" s="32"/>
       <c r="R66" s="32"/>
-    </row>
-    <row r="67" spans="1:18">
+      <c r="S66" s="33"/>
+    </row>
+    <row r="67" spans="1:19">
       <c r="A67" s="23" t="s">
         <v>11</v>
       </c>
@@ -4421,8 +4621,11 @@
       <c r="R67" s="37">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="68" spans="1:18">
+      <c r="S67" s="51">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19">
       <c r="A68" s="23" t="s">
         <v>48</v>
       </c>
@@ -4477,8 +4680,11 @@
       <c r="R68" s="37">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="69" spans="1:18">
+      <c r="S68" s="51">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19">
       <c r="A69" s="23" t="s">
         <v>51</v>
       </c>
@@ -4533,8 +4739,11 @@
       <c r="R69" s="37">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="70" spans="1:18">
+      <c r="S69" s="51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19">
       <c r="A70" s="7" t="s">
         <v>13</v>
       </c>
@@ -4589,8 +4798,11 @@
       <c r="R70" s="36">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="71" spans="1:18">
+      <c r="S70" s="52">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19">
       <c r="A71" s="7" t="s">
         <v>48</v>
       </c>
@@ -4645,8 +4857,11 @@
       <c r="R71" s="36">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="72" spans="1:18">
+      <c r="S71" s="52">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19">
       <c r="A72" s="7" t="s">
         <v>51</v>
       </c>
@@ -4701,8 +4916,11 @@
       <c r="R72" s="36">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="73" spans="1:18">
+      <c r="S72" s="52">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19">
       <c r="A73" s="7" t="s">
         <v>15</v>
       </c>
@@ -4757,8 +4975,11 @@
       <c r="R73" s="36">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="74" spans="1:18">
+      <c r="S73" s="52">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19">
       <c r="A74" s="7" t="s">
         <v>48</v>
       </c>
@@ -4813,8 +5034,11 @@
       <c r="R74" s="36">
         <v>10</v>
       </c>
-    </row>
-    <row r="75" spans="1:18">
+      <c r="S74" s="52">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19">
       <c r="A75" s="7" t="s">
         <v>51</v>
       </c>
@@ -4869,8 +5093,11 @@
       <c r="R75" s="36">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="76" spans="1:18">
+      <c r="S75" s="52">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19">
       <c r="A76" s="7" t="s">
         <v>16</v>
       </c>
@@ -4925,8 +5152,11 @@
       <c r="R76" s="36">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="77" spans="1:18">
+      <c r="S76" s="52">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19">
       <c r="A77" s="7" t="s">
         <v>48</v>
       </c>
@@ -4981,8 +5211,11 @@
       <c r="R77" s="36">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="78" spans="1:18">
+      <c r="S77" s="52">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19">
       <c r="A78" s="7" t="s">
         <v>51</v>
       </c>
@@ -5037,8 +5270,11 @@
       <c r="R78" s="36">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="79" spans="1:18">
+      <c r="S78" s="52">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19">
       <c r="A79" s="7" t="s">
         <v>17</v>
       </c>
@@ -5093,8 +5329,11 @@
       <c r="R79" s="36">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="80" spans="1:18">
+      <c r="S79" s="52">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19">
       <c r="A80" s="7" t="s">
         <v>48</v>
       </c>
@@ -5149,8 +5388,11 @@
       <c r="R80" s="36">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="81" spans="1:18">
+      <c r="S80" s="52">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19">
       <c r="A81" s="7" t="s">
         <v>51</v>
       </c>
@@ -5205,8 +5447,11 @@
       <c r="R81" s="36">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="82" spans="1:18">
+      <c r="S81" s="52">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19">
       <c r="A82" s="7" t="s">
         <v>19</v>
       </c>
@@ -5261,8 +5506,11 @@
       <c r="R82" s="36">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="83" spans="1:18">
+      <c r="S82" s="52">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19">
       <c r="A83" s="7" t="s">
         <v>48</v>
       </c>
@@ -5317,8 +5565,11 @@
       <c r="R83" s="36">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="84" spans="1:18">
+      <c r="S83" s="52">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19">
       <c r="A84" s="7" t="s">
         <v>51</v>
       </c>
@@ -5373,8 +5624,11 @@
       <c r="R84" s="36">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="85" spans="1:18">
+      <c r="S84" s="52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19">
       <c r="A85" s="7" t="s">
         <v>21</v>
       </c>
@@ -5429,8 +5683,11 @@
       <c r="R85" s="36">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="86" spans="1:18">
+      <c r="S85" s="52">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19">
       <c r="A86" s="7" t="s">
         <v>48</v>
       </c>
@@ -5485,8 +5742,11 @@
       <c r="R86" s="36">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="87" spans="1:18">
+      <c r="S86" s="52">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19">
       <c r="A87" s="7" t="s">
         <v>51</v>
       </c>
@@ -5541,8 +5801,11 @@
       <c r="R87" s="36">
         <v>3</v>
       </c>
-    </row>
-    <row r="88" spans="1:18">
+      <c r="S87" s="52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19">
       <c r="A88" s="7" t="s">
         <v>23</v>
       </c>
@@ -5597,8 +5860,11 @@
       <c r="R88" s="36">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="89" spans="1:18">
+      <c r="S88" s="52">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19">
       <c r="A89" s="7" t="s">
         <v>48</v>
       </c>
@@ -5653,8 +5919,11 @@
       <c r="R89" s="36">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="90" spans="1:18">
+      <c r="S89" s="52">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19">
       <c r="A90" s="7" t="s">
         <v>51</v>
       </c>
@@ -5709,8 +5978,11 @@
       <c r="R90" s="36">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="91" spans="1:18">
+      <c r="S90" s="52">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19">
       <c r="A91" s="7" t="s">
         <v>25</v>
       </c>
@@ -5765,8 +6037,11 @@
       <c r="R91" s="36">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="92" spans="1:18">
+      <c r="S91" s="52">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19">
       <c r="A92" s="7" t="s">
         <v>48</v>
       </c>
@@ -5821,8 +6096,11 @@
       <c r="R92" s="36">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="93" spans="1:18">
+      <c r="S92" s="52">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19">
       <c r="A93" s="7" t="s">
         <v>51</v>
       </c>
@@ -5877,8 +6155,11 @@
       <c r="R93" s="36">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="94" spans="1:18">
+      <c r="S93" s="52">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19">
       <c r="A94" s="7" t="s">
         <v>28</v>
       </c>
@@ -5933,8 +6214,11 @@
       <c r="R94" s="36">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="95" spans="1:18">
+      <c r="S94" s="52">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19">
       <c r="A95" s="7" t="s">
         <v>48</v>
       </c>
@@ -5989,8 +6273,11 @@
       <c r="R95" s="36">
         <v>5</v>
       </c>
-    </row>
-    <row r="96" spans="1:18">
+      <c r="S95" s="52">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19">
       <c r="A96" s="7" t="s">
         <v>51</v>
       </c>
@@ -6045,8 +6332,11 @@
       <c r="R96" s="36">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="97" spans="1:18">
+      <c r="S96" s="52">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19">
       <c r="A97" s="22" t="s">
         <v>39</v>
       </c>
@@ -6071,8 +6361,9 @@
       <c r="P97" s="32"/>
       <c r="Q97" s="32"/>
       <c r="R97" s="32"/>
-    </row>
-    <row r="98" spans="1:18">
+      <c r="S97" s="33"/>
+    </row>
+    <row r="98" spans="1:19">
       <c r="A98" s="3" t="s">
         <v>11</v>
       </c>
@@ -6127,8 +6418,11 @@
       <c r="R98" s="16">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="99" spans="1:18">
+      <c r="S98" s="48">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19">
       <c r="A99" s="3" t="s">
         <v>48</v>
       </c>
@@ -6183,8 +6477,11 @@
       <c r="R99" s="16">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="100" spans="1:18">
+      <c r="S99" s="48">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19">
       <c r="A100" s="3" t="s">
         <v>51</v>
       </c>
@@ -6239,8 +6536,11 @@
       <c r="R100" s="16">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="101" spans="1:18">
+      <c r="S100" s="48">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19">
       <c r="A101" s="5" t="s">
         <v>13</v>
       </c>
@@ -6295,8 +6595,11 @@
       <c r="R101" s="27">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="102" spans="1:18">
+      <c r="S101" s="49">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19">
       <c r="A102" s="5" t="s">
         <v>48</v>
       </c>
@@ -6351,8 +6654,11 @@
       <c r="R102" s="27">
         <v>6</v>
       </c>
-    </row>
-    <row r="103" spans="1:18">
+      <c r="S102" s="49">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19">
       <c r="A103" s="5" t="s">
         <v>51</v>
       </c>
@@ -6407,8 +6713,11 @@
       <c r="R103" s="27">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="104" spans="1:18">
+      <c r="S103" s="49">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19">
       <c r="A104" s="5" t="s">
         <v>15</v>
       </c>
@@ -6463,8 +6772,11 @@
       <c r="R104" s="27">
         <v>15</v>
       </c>
-    </row>
-    <row r="105" spans="1:18">
+      <c r="S104" s="49">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19">
       <c r="A105" s="5" t="s">
         <v>48</v>
       </c>
@@ -6519,8 +6831,11 @@
       <c r="R105" s="27">
         <v>19.399999999999999</v>
       </c>
-    </row>
-    <row r="106" spans="1:18">
+      <c r="S105" s="49">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19">
       <c r="A106" s="5" t="s">
         <v>51</v>
       </c>
@@ -6575,8 +6890,11 @@
       <c r="R106" s="27">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="107" spans="1:18">
+      <c r="S106" s="49">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19">
       <c r="A107" s="5" t="s">
         <v>16</v>
       </c>
@@ -6631,8 +6949,11 @@
       <c r="R107" s="27">
         <v>33.9</v>
       </c>
-    </row>
-    <row r="108" spans="1:18">
+      <c r="S107" s="49">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19">
       <c r="A108" s="5" t="s">
         <v>48</v>
       </c>
@@ -6687,8 +7008,11 @@
       <c r="R108" s="27">
         <v>45.8</v>
       </c>
-    </row>
-    <row r="109" spans="1:18">
+      <c r="S108" s="49">
+        <v>33.700000000000003</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19">
       <c r="A109" s="5" t="s">
         <v>51</v>
       </c>
@@ -6743,8 +7067,11 @@
       <c r="R109" s="27">
         <v>22.1</v>
       </c>
-    </row>
-    <row r="110" spans="1:18">
+      <c r="S109" s="49">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19">
       <c r="A110" s="5" t="s">
         <v>17</v>
       </c>
@@ -6799,8 +7126,11 @@
       <c r="R110" s="27">
         <v>43.7</v>
       </c>
-    </row>
-    <row r="111" spans="1:18">
+      <c r="S110" s="49">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19">
       <c r="A111" s="5" t="s">
         <v>48</v>
       </c>
@@ -6855,8 +7185,11 @@
       <c r="R111" s="27">
         <v>47.6</v>
       </c>
-    </row>
-    <row r="112" spans="1:18">
+      <c r="S111" s="49">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19">
       <c r="A112" s="5" t="s">
         <v>51</v>
       </c>
@@ -6911,8 +7244,11 @@
       <c r="R112" s="27">
         <v>39.6</v>
       </c>
-    </row>
-    <row r="113" spans="1:18">
+      <c r="S112" s="49">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19">
       <c r="A113" s="5" t="s">
         <v>19</v>
       </c>
@@ -6967,8 +7303,11 @@
       <c r="R113" s="27">
         <v>18.7</v>
       </c>
-    </row>
-    <row r="114" spans="1:18">
+      <c r="S113" s="49">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19">
       <c r="A114" s="5" t="s">
         <v>48</v>
       </c>
@@ -7023,8 +7362,11 @@
       <c r="R114" s="27">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="115" spans="1:18">
+      <c r="S114" s="49">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19">
       <c r="A115" s="5" t="s">
         <v>51</v>
       </c>
@@ -7079,8 +7421,11 @@
       <c r="R115" s="27">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="116" spans="1:18">
+      <c r="S115" s="49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19">
       <c r="A116" s="5" t="s">
         <v>21</v>
       </c>
@@ -7135,8 +7480,11 @@
       <c r="R116" s="27">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="117" spans="1:18">
+      <c r="S116" s="49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19">
       <c r="A117" s="5" t="s">
         <v>48</v>
       </c>
@@ -7191,8 +7539,11 @@
       <c r="R117" s="27">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="118" spans="1:18">
+      <c r="S117" s="49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19">
       <c r="A118" s="5" t="s">
         <v>51</v>
       </c>
@@ -7247,8 +7598,11 @@
       <c r="R118" s="27">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="119" spans="1:18">
+      <c r="S118" s="49">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19">
       <c r="A119" s="5" t="s">
         <v>23</v>
       </c>
@@ -7303,8 +7657,11 @@
       <c r="R119" s="27">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="120" spans="1:18">
+      <c r="S119" s="49">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19">
       <c r="A120" s="5" t="s">
         <v>48</v>
       </c>
@@ -7359,8 +7716,11 @@
       <c r="R120" s="27">
         <v>10</v>
       </c>
-    </row>
-    <row r="121" spans="1:18">
+      <c r="S120" s="49">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19">
       <c r="A121" s="5" t="s">
         <v>51</v>
       </c>
@@ -7415,8 +7775,11 @@
       <c r="R121" s="27">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="122" spans="1:18">
+      <c r="S121" s="49">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19">
       <c r="A122" s="7" t="s">
         <v>25</v>
       </c>
@@ -7471,8 +7834,11 @@
       <c r="R122" s="27">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="123" spans="1:18">
+      <c r="S122" s="49">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19">
       <c r="A123" s="7" t="s">
         <v>48</v>
       </c>
@@ -7527,8 +7893,11 @@
       <c r="R123" s="27">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="124" spans="1:18">
+      <c r="S123" s="49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19">
       <c r="A124" s="7" t="s">
         <v>51</v>
       </c>
@@ -7583,8 +7952,11 @@
       <c r="R124" s="27">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="125" spans="1:18">
+      <c r="S124" s="49">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19">
       <c r="A125" s="7" t="s">
         <v>28</v>
       </c>
@@ -7639,8 +8011,11 @@
       <c r="R125" s="27">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="126" spans="1:18">
+      <c r="S125" s="49">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19">
       <c r="A126" s="7" t="s">
         <v>48</v>
       </c>
@@ -7695,8 +8070,11 @@
       <c r="R126" s="27">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="127" spans="1:18" ht="15.75" thickBot="1">
+      <c r="S126" s="49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" ht="15.75" thickBot="1">
       <c r="A127" s="8" t="s">
         <v>51</v>
       </c>
@@ -7750,6 +8128,9 @@
       </c>
       <c r="R127" s="28">
         <v>8.3000000000000007</v>
+      </c>
+      <c r="S127" s="28">
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
